--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -76,36 +79,30 @@
     <t>avoid</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>cut</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
@@ -127,103 +124,103 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>save</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -589,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8287671232876712</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,16 +768,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,31 +815,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.65</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.675</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6078431372549019</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8481675392670157</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5988372093023255</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C10">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D10">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5932203389830508</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.582010582010582</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5570469798657718</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4909090909090909</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>0.8046875</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4642857142857143</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.796875</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L15">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4333333333333333</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7924528301886793</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L16">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4133333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7906976744186046</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4025974025974026</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7708333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3412698412698413</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="C19">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3125</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,28 +1515,28 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>12</v>
@@ -1550,37 +1547,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2204301075268817</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C21">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6735294117647059</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,37 +1597,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.18</v>
+        <v>0.03972366148531951</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>246</v>
+        <v>1112</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,37 +1647,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.03894839337877313</v>
+        <v>0.03625768857235351</v>
       </c>
       <c r="C23">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E23">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F23">
-        <v>0.8200000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2961</v>
+        <v>2977</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6271186440677966</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L23">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="M23">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,37 +1697,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03816131830008673</v>
+        <v>0.03012746234067207</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F24">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1109</v>
+        <v>837</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6192468619246861</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L24">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="M24">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,37 +1747,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03128621089223638</v>
+        <v>0.02129673450070989</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="F25">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>836</v>
+        <v>2068</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1800,87 +1797,63 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02826189354686764</v>
+        <v>0.009312780989081566</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
         <v>0.25</v>
       </c>
-      <c r="F26">
-        <v>0.75</v>
-      </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2063</v>
+        <v>3085</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.62</v>
+      </c>
+      <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K26">
-        <v>0.5957446808510638</v>
-      </c>
-      <c r="L26">
-        <v>56</v>
-      </c>
-      <c r="M26">
-        <v>56</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.00967741935483871</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <v>131</v>
-      </c>
-      <c r="E27">
-        <v>0.77</v>
-      </c>
-      <c r="F27">
-        <v>0.23</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>3070</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1892,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5857142857142857</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1918,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.5730337078651685</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1944,47 +1917,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.4583333333333333</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.456140350877193</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1996,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.421875</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2022,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.3717948717948718</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2048,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.1006493506493507</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2074,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>277</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.08996539792387544</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2100,137 +2073,137 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>263</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.07780979827089338</v>
+        <v>0.1042345276872964</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.0748792270531401</v>
+        <v>0.06265060240963856</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.04231974921630094</v>
+        <v>0.0334448160535117</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O38">
-        <v>0.3100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>611</v>
+        <v>867</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K39">
-        <v>0.03185115105644907</v>
+        <v>0.02742749054224464</v>
       </c>
       <c r="L39">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M39">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N39">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="O39">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3070</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K40">
-        <v>0.008704385671242048</v>
+        <v>0.01429933269780744</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="N40">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="O40">
-        <v>0.8200000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2961</v>
+        <v>2068</v>
       </c>
     </row>
   </sheetData>
